--- a/biology/Biologie cellulaire et moléculaire/Récepteur_des_hormones_thyroïdiennes/Récepteur_des_hormones_thyroïdiennes.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_des_hormones_thyroïdiennes/Récepteur_des_hormones_thyroïdiennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_hormones_thyro%C3%AFdiennes</t>
+          <t>Récepteur_des_hormones_thyroïdiennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs des hormones thyroïdes (TR) sont des protéines de la superfamille des récepteurs cytoplasmique liant naturellement les hormones thyroïdiennes. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_hormones_thyro%C3%AFdiennes</t>
+          <t>Récepteur_des_hormones_thyroïdiennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe deux sous-groupes d'isoformes :
 Récepteur des hormones thyroïdiennes de type α, (TRα; NR1A1) :
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_hormones_thyro%C3%AFdiennes</t>
+          <t>Récepteur_des_hormones_thyroïdiennes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_hormones_thyro%C3%AFdiennes</t>
+          <t>Récepteur_des_hormones_thyroïdiennes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs des hormones thyroïdiennes sont principalement impliqués dans la régulation du métabolisme et du rythme cardiaque. Ils jouent également un rôle au moment du développement.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_hormones_thyro%C3%AFdiennes</t>
+          <t>Récepteur_des_hormones_thyroïdiennes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Portail de la biologie cellulaire et moléculaire   Portail de la pharmacie                    </t>
